--- a/作业/第五周作业/等价类课后作业.xlsx
+++ b/作业/第五周作业/等价类课后作业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>等价类划分</t>
   </si>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1~12月 </t>
     </r>
     <r>
@@ -47,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">小于1的值 </t>
     </r>
     <r>
@@ -62,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">大于12的值 </t>
     </r>
     <r>
@@ -80,6 +101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1~31 </t>
     </r>
     <r>
@@ -95,6 +123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">小于1的值 </t>
     </r>
     <r>
@@ -110,6 +145,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">平年2月大于28的值 </t>
     </r>
     <r>
@@ -125,6 +167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">闰年2月大于29的值 </t>
     </r>
     <r>
@@ -140,6 +189,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">30天月份大于30的值 </t>
     </r>
     <r>
@@ -155,6 +211,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">31天月份大于31的值 </t>
     </r>
     <r>
@@ -173,6 +236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1912~2050 </t>
     </r>
     <r>
@@ -188,6 +258,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">小于1912 </t>
     </r>
     <r>
@@ -203,6 +280,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">大于2050 </t>
     </r>
     <r>
@@ -215,19 +299,80 @@
       </rPr>
       <t>12</t>
     </r>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>测试编号</t>
+  </si>
+  <si>
+    <t>覆盖的等价类</t>
+  </si>
+  <si>
+    <t>期望的输出</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>4, 2, 3</t>
+  </si>
+  <si>
+    <t>month格式错误</t>
+  </si>
+  <si>
+    <t>5, 2, 3</t>
+  </si>
+  <si>
+    <t>6, 2, 3</t>
+  </si>
+  <si>
+    <t>day格式错误</t>
+  </si>
+  <si>
+    <t>7, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>8, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>9, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>10, 1, 3</t>
+  </si>
+  <si>
+    <t>11, 1, 2</t>
+  </si>
+  <si>
+    <t>year格式错误</t>
+  </si>
+  <si>
+    <t>12, 1, 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,21 +389,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -266,24 +396,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,6 +427,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -319,8 +442,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,52 +525,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -403,6 +541,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,13 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,13 +631,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,37 +685,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,97 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,27 +809,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -713,25 +843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,9 +874,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,161 +902,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +1088,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,126 +1444,584 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="H2:L14"/>
+  <dimension ref="F2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="8:10">
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="8:10">
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="8:10">
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="8:10">
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="8:10">
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="8:10">
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="8:10">
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="8:10">
-      <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="8:10">
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="8:10">
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="8:10">
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="8:12">
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="16" spans="6:11">
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="6:11">
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="6:11">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6">
+        <v>31</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1999</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="14">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11">
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6">
+        <v>31</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2050</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="14">
+        <v>55154</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11">
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>12</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2010</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11">
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>28</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1999</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="14">
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11">
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>27</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1999</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="14">
+        <v>36219</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11">
+      <c r="F26" s="5">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>29</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1999</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11">
+      <c r="F27" s="5">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>29</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1996</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="14">
+        <v>35125</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11">
+      <c r="F28" s="5">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>28</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1996</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="14">
+        <v>35124</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11">
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>30</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1996</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="F30" s="5">
+        <v>11</v>
+      </c>
+      <c r="G30" s="5">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>30</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2020</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="14">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11">
+      <c r="F31" s="5">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5">
+        <v>9</v>
+      </c>
+      <c r="H31" s="6">
+        <v>14</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1929</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="14">
+        <v>10851</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11">
+      <c r="F32" s="5">
+        <v>13</v>
+      </c>
+      <c r="G32" s="5">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6">
+        <v>31</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2017</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" s="5">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>31</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2049</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="14">
+        <v>54575</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11">
+      <c r="F34" s="5">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1917</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="14">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11">
+      <c r="F35" s="5">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6">
+        <v>32</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2010</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11">
+      <c r="F36" s="5">
+        <v>17</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1911</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11">
+      <c r="F37" s="5">
+        <v>18</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2051</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="6:11">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="6:11">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="H4:H7"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="H13:H14"/>
@@ -1410,6 +2030,8 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
